--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,135 +40,144 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shocking</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>bad</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>2020</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
@@ -176,12 +185,6 @@
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,16 +838,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5862068965517241</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.5833333333333334</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,37 +1117,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1164,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.4210526315789473</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1214,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.2222222222222222</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1256,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.1818181818181818</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.1707317073170732</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5217391304347826</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.1458333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,7 +1417,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1432,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.05737704918032787</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1035</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.02826855123674912</v>
+        <v>0.05919854280510018</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>275</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4117647058823529</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.01807228915662651</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>652</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1564,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1582,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.01666666666666667</v>
+        <v>0.01506024096385542</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>531</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1614,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.391304347826087</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1632,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.00974025974025974</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>610</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1664,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1682,31 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.004032258064516129</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1729</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1714,13 +1693,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3428571428571429</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1732,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1740,13 +1719,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2916666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1758,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1766,13 +1745,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2692307692307692</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1784,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1792,13 +1771,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2307692307692308</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1810,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1818,24 +1797,76 @@
         <v>34</v>
       </c>
       <c r="B29">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
         <v>0.08974358974358974</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>71</v>
       </c>
     </row>
